--- a/template/template-walmart-master-bol.xlsx
+++ b/template/template-walmart-master-bol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\usbserver\USBData\Operations\Order Processing\All Purchase Orders &amp; Sales Info\Wal-Mart\2024\BOL BLANKS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liajiang/Developers/BOL/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF77A42-AE6C-4698-A2F2-C5CBD81F9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466FACA6-7D99-8643-8C9F-BBCD4C337650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9913E9A9-0CA7-4E94-A91E-692B5CF97EB1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{9913E9A9-0CA7-4E94-A91E-692B5CF97EB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>MASTER BILL OF LADING</t>
   </si>
@@ -127,16 +127,7 @@
     <t>Commodities requiring special or additional care or attention in handling or stowing must be so marked and packaged as to ensure safe transportation with ordinary care. See Section 2(e) of NMFC</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Carton</t>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>FG0076-01 Milkflow Drink Mix Fenugreek Berry 16 Ct (electrolytes)</t>
   </si>
   <si>
     <t>GRAND TOTAL</t>
@@ -206,9 +197,6 @@
     <t>830 EAST CENTRE PARK BLVD</t>
   </si>
   <si>
-    <t>FG0005-03 Milkscreen Alcohol 20-Pack</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE: </t>
   </si>
   <si>
@@ -242,31 +230,7 @@
     <t>ADDITIONAL SHIPPER INO</t>
   </si>
   <si>
-    <t>Y/N</t>
-  </si>
-  <si>
-    <t>FG0300-10 Stomach Settle Lemon Ginger 28 Ct ard Drops Retail Pouch (4-UP)</t>
-  </si>
-  <si>
-    <t>FG0076-03 Milkflow Drink Mix Fenugreek 16 Ct Orange Mango (Immunity)</t>
-  </si>
-  <si>
-    <t>FG0076-04 Milkflow Drink Mix, Fenugreek 16 Ct Chocolate (Energy)</t>
-  </si>
-  <si>
     <t xml:space="preserve">PAGE 1 OF 2 </t>
-  </si>
-  <si>
-    <t>FG0300-12 Stomach Settle Mint 28 Ct ard Drops Retail Pouch (4-UP)</t>
-  </si>
-  <si>
-    <t>FG0300-13 Stomach Settle Morning Sickness 28 Ct Drops Retail Pouch (4-UP)</t>
-  </si>
-  <si>
-    <t>FG0074-02 Milkflow Drink Mix Blueberry Acai, Fenugreek Free 16 Ct</t>
-  </si>
-  <si>
-    <t>FG0125-04 Milkflow Supplement Capsules 100 Count Retail Carton</t>
   </si>
 </sst>
 </file>
@@ -375,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -735,17 +699,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -897,6 +850,32 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -928,68 +907,335 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1009,28 +1255,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1057,275 +1294,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,150 +1629,150 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:M28"/>
+      <selection activeCell="B25" sqref="B25:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="0.28515625" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="0.33203125" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66" t="s">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="124"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="4"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="4"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="4"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="121"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1798,68 +1783,68 @@
       <c r="F12" s="4"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="4"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="33"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83" t="s">
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="85"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="111"/>
+    </row>
+    <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="4"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1867,29 +1852,29 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84" t="s">
+      <c r="G18" s="110"/>
+      <c r="H18" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84" t="s">
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="110"/>
+      <c r="M18" s="111"/>
+    </row>
+    <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="4"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
@@ -1900,996 +1885,879 @@
       <c r="F20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="88"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="114"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+    </row>
+    <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+    </row>
+    <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="91" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="95" t="s">
+      <c r="D23" s="97"/>
+      <c r="E23" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="96" t="s">
+      <c r="G23" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="98"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="103"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="99" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="101"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="48"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="103"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="89"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="105"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="105"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="11"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="40"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="34"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="105"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="91"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="105"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="105"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="91"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="105"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="91"/>
+    </row>
+    <row r="33" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B33" s="11"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="107"/>
-    </row>
-    <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37">
+        <v>30</v>
+      </c>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="93"/>
+    </row>
+    <row r="34" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
         <f>SUM(A25:A33)</f>
         <v>0</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="37">
+      <c r="B34" s="24"/>
+      <c r="C34" s="31">
         <f>SUM(C25:C33)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="37">
+      <c r="D34" s="32"/>
+      <c r="E34" s="31">
         <f>SUM(E25:E33)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="129" t="s">
+      <c r="F34" s="24"/>
+      <c r="G34" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="71"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="131"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="132" t="s">
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="78"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="74"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="79"/>
+    </row>
+    <row r="37" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="76"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="80"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133" t="s">
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+    </row>
+    <row r="39" spans="1:17" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="138"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="134"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="139"/>
-    </row>
-    <row r="37" spans="1:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="136"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="140"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="141" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="141"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="141"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="141"/>
-    </row>
-    <row r="39" spans="1:17" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="141"/>
-      <c r="B39" s="141"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="141"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="108" t="s">
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="57"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="60"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="60"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="44"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="62"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="117"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="120"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="120"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="114"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="122"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
       <c r="F44" s="1"/>
       <c r="G44" s="15"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="L44" s="142"/>
-      <c r="M44" s="143"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="125"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
+      <c r="K44" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" s="82"/>
+      <c r="M44" s="83"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="153"/>
-      <c r="J45" s="154"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="145"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="125"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="85"/>
+    </row>
+    <row r="46" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
       <c r="F46" s="4"/>
       <c r="G46" s="14"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
-      <c r="M46" s="147"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="127"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="87"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="4"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="153" t="s">
+      <c r="H47" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" s="47"/>
+      <c r="M47" s="48"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="I47" s="153"/>
-      <c r="J47" s="154"/>
-      <c r="K47" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" s="100"/>
-      <c r="M47" s="101"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="153" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="153"/>
-      <c r="J48" s="154"/>
-      <c r="K48" s="149"/>
-      <c r="L48" s="149"/>
-      <c r="M48" s="150"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="113"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="50"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="150"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="111"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="113"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="50"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="153" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="153"/>
-      <c r="J50" s="154"/>
-      <c r="K50" s="149"/>
-      <c r="L50" s="149"/>
-      <c r="M50" s="150"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="113"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="50"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="4"/>
       <c r="G51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="149"/>
-      <c r="M51" s="150"/>
-    </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="114"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="148"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="50"/>
+    </row>
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="6"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="151"/>
-      <c r="L52" s="151"/>
-      <c r="M52" s="152"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="52"/>
+    </row>
+    <row r="53" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="141" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="142"/>
+      <c r="C54" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
+      <c r="F54" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="61" t="s">
+      <c r="G54" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="H54" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="63" t="s">
+      <c r="I54" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="61" t="s">
+      <c r="J54" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="J54" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="44"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="47"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="56"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="53"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="53"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="53"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="53"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="53"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="53"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="53"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="53"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="53"/>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="53"/>
-    </row>
-    <row r="67" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="50"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="131"/>
+    </row>
+    <row r="55" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="143"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="133"/>
+      <c r="M55" s="134"/>
+    </row>
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="140"/>
+    </row>
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="151"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="37"/>
+    </row>
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="151"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="37"/>
+    </row>
+    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="151"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="37"/>
+    </row>
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="151"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="37"/>
+    </row>
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="151"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="37"/>
+    </row>
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="151"/>
+      <c r="B62" s="152"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="37"/>
+    </row>
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="151"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="37"/>
+    </row>
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="151"/>
+      <c r="B64" s="152"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="37"/>
+    </row>
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="151"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="37"/>
+    </row>
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="151"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="37"/>
+    </row>
+    <row r="67" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="153"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="135"/>
+      <c r="K67" s="136"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="137"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="A48:E52"/>
-    <mergeCell ref="K47:M52"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="A40:H43"/>
-    <mergeCell ref="I40:M43"/>
-    <mergeCell ref="A44:E47"/>
-    <mergeCell ref="G34:Q34"/>
-    <mergeCell ref="A35:I37"/>
-    <mergeCell ref="J35:M37"/>
-    <mergeCell ref="A38:M39"/>
-    <mergeCell ref="K44:M46"/>
-    <mergeCell ref="G25:Q25"/>
-    <mergeCell ref="G30:Q30"/>
-    <mergeCell ref="G27:Q27"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="G33:Q33"/>
-    <mergeCell ref="G29:Q29"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="G26:Q26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="G24:O24"/>
-    <mergeCell ref="A21:M22"/>
-    <mergeCell ref="A16:E17"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="A10:E11"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F7:H7"/>
+  <mergeCells count="79">
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A53:M53"/>
     <mergeCell ref="J54:M55"/>
     <mergeCell ref="J67:M67"/>
@@ -2906,6 +2774,57 @@
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="J59:M59"/>
     <mergeCell ref="J60:M60"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="A10:E11"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A21:M22"/>
+    <mergeCell ref="A16:E17"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="G24:O24"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="G30:Q30"/>
+    <mergeCell ref="G27:Q27"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="G33:Q33"/>
+    <mergeCell ref="G29:Q29"/>
+    <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="G26:Q26"/>
+    <mergeCell ref="A40:H43"/>
+    <mergeCell ref="I40:M43"/>
+    <mergeCell ref="A44:E47"/>
+    <mergeCell ref="G34:Q34"/>
+    <mergeCell ref="A35:I37"/>
+    <mergeCell ref="J35:M37"/>
+    <mergeCell ref="A38:M39"/>
+    <mergeCell ref="K44:M46"/>
+    <mergeCell ref="A48:E52"/>
+    <mergeCell ref="K47:M52"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2923,15 +2842,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010021B2BA11543C6E46B0BDC5084A8D08CB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4560cc6e5f86f0938f3e5e1e4c9b8f7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e3877037-40d8-412e-928a-808df435ab6d" xmlns:ns3="27ba59cb-2538-41de-a2cb-c2b94feb3dc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3181f8747d74a5910393c39a7dfff70a" ns2:_="" ns3:_="">
     <xsd:import namespace="e3877037-40d8-412e-928a-808df435ab6d"/>
@@ -3154,6 +3064,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B887491-E305-4E28-AFD5-EACC5F1DF268}">
   <ds:schemaRefs>
@@ -3166,14 +3085,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7205E615-9593-453E-A8EA-3A14CE5AB49E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE9F6822-4C3C-4C5E-AE1B-CA24B6B9B8CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3190,4 +3101,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7205E615-9593-453E-A8EA-3A14CE5AB49E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>